--- a/API_TestCase.xlsx
+++ b/API_TestCase.xlsx
@@ -1,26 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+  <si>
+    <t>Unauthorization</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+  </si>
+  <si>
+    <t>TC No.</t>
+  </si>
+  <si>
+    <t>SRS / Use Case Reference No.</t>
+  </si>
+  <si>
+    <t>Test Focus</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Steps for Execution</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Results </t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>functionality to launch server</t>
+  </si>
+  <si>
+    <t>launch API server to verify the server is  running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 . Navigate to Demo_app.py
+2. run the Demo_app application </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>functionality to view all the existing customer</t>
+  </si>
+  <si>
+    <t>View existing customer</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/v1/resources/customers/all</t>
+  </si>
+  <si>
+    <t>System should list out all the user with details specified 
+Status code: 200</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/v1/resources/customers?id=1</t>
+  </si>
+  <si>
+    <t>System should list out  the user details based on given id specified 
+Status code: 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the validation displayed on invalid user id </t>
+  </si>
+  <si>
+    <t>functionality to view  for the invalid user id</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/v1/resources/customers?id%20=%20100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display "Not Found" message with the status code as 404
+</t>
+  </si>
+  <si>
+    <t>working as expected 
+displayed  
+{
+"Status" : "Not Found",
+"Code" : 404
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionality to create new user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create New user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 . Navigate to browser 
+2. type the given URL
+3. press Enter key
+Pre-condition: service should be running </t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/v1/resources/customers?id=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should list out  the user details based on given id specified 
+Status code: 200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working as expected 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the newly created user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionality to verify the created user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 . Navigate to browser 
+2. type the given URL
+3. press Enter key
+Pre-condition: service should be running 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ok </t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not Found</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>some of the status code message which should be handled based on the requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API result uploaded in the attachment </t>
+  </si>
+  <si>
+    <t>Ex: root the command prompt to the demo_app folder and run the below command 
+cmd$: Python demo_app.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api server/Resource/service should launch 
+Note: 
+1. we can verify by launching the below link in the web browser 
+URI -  http://localhost:5000/
+Status code: 200 </t>
+  </si>
+  <si>
+    <t>should launch the server and below message is displayed 
+"Customer On Boarding  A prototype API for Customer view "</t>
+  </si>
+  <si>
+    <t>system displayed the details of existing customer</t>
+  </si>
+  <si>
+    <t>Get details of specific user id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionality to view  the details of specific customer by specifying  the user id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 . Navigate to browser 
+2. type the given URL
+3. press Enter key
+Pre-condition: service should be running 
+POST method script is user to create the user with requested details 
+JSON data: 
+{
+    "address": "Bangalore,  
+    "id": 4, 
+    "name": "Narendra ,
+    "on boarded": "true", 
+    "status": "ACTIVE", 
+    "viewId": 1, 
+    "workflowId": 1
+  }
+</t>
+  </si>
+  <si>
+    <t>Script should return the message as displayed below 
+"Successfully created the user with Id = 4 and Status Code = 200"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working as expected 
+displayed  
+{
+    "address": "Bangalore,  
+    "id": 4, 
+    "name": "Narendra ,
+    "on boarded": "true", 
+    "status": "ACTIVE", 
+    "viewId": 1, 
+    "workflowId": 1
+  }
+</t>
+  </si>
+  <si>
+    <t>Internal server error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +247,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,12 +290,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,20 +689,325 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="180">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="90">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="90">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="166.5" customHeight="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="240">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" thickBot="1">
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="9">
+        <v>200</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12" s="9">
+        <v>201</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" s="9">
+        <v>404</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="9">
+        <v>400</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="9">
+        <v>500</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="9">
+        <v>401</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="9">
+        <v>403</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <oleObjects>
+    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+  </oleObjects>
 </worksheet>
 </file>